--- a/docs/画面項目定義書/physical_node_dashboard.xlsx
+++ b/docs/画面項目定義書/physical_node_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FCF60E-1EE0-4E9C-830A-886E05CAAA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0686D1-A60D-4FC6-B75B-20367FCCE42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>日本工学院</t>
   </si>
@@ -175,6 +175,10 @@
     <rPh sb="0" eb="4">
       <t>サクジョフカ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>physical_node_dashboard</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1128,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1195,7 +1199,7 @@
     </row>
     <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="39" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="15"/>

--- a/docs/画面項目定義書/physical_node_dashboard.xlsx
+++ b/docs/画面項目定義書/physical_node_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0686D1-A60D-4FC6-B75B-20367FCCE42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65264786-220C-4C75-B5B9-B7EC6AEBB049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>日本工学院</t>
   </si>
@@ -179,6 +179,115 @@
   </si>
   <si>
     <t>physical_node_dashboard</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>物理ノードエンティティを取得して繰り返し表示</t>
+  </si>
+  <si>
+    <t>物理ノードエンティティを取得して繰り返し表示</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル「IPアドレス」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル「CPU」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル「メモリ」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル「ストレージ」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル「削除ボタン」</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>物理ノードエンティティより</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mo_add_node_to_clusterを表示</t>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -189,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +353,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -489,7 +611,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,6 +715,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1132,21 +1269,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1294,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1166,7 +1303,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1175,7 +1312,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1184,7 +1321,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1197,7 +1334,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1345,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1217,7 +1354,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1255,7 +1392,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1272,7 +1409,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -1287,248 +1424,297 @@
         <v>13</v>
       </c>
       <c r="F11" s="32"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>16</v>
+      <c r="B12" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>17</v>
+      <c r="B13" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>18</v>
+      <c r="B14" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>19</v>
+      <c r="B15" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>20</v>
+      <c r="B16" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="17"/>
       <c r="E16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>9</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="29" t="s">
-        <v>12</v>
+      <c r="E17" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G17" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6">
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="29" t="s">
-        <v>23</v>
+      <c r="E18" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G18" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6">
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="22"/>
-      <c r="E19" s="29" t="s">
-        <v>24</v>
+      <c r="E19" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6">
         <v>12</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="22"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G20" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6">
         <v>13</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G21" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6">
         <v>14</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G22" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6">
         <v>15</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6">
         <v>16</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G24" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6">
         <v>17</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G25" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6">
         <v>18</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D26" s="22"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6">
         <v>19</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="D27" s="22"/>
       <c r="E27" s="29"/>
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6">
         <v>20</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>

--- a/docs/画面項目定義書/physical_node_dashboard.xlsx
+++ b/docs/画面項目定義書/physical_node_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65264786-220C-4C75-B5B9-B7EC6AEBB049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFFFA0E-D1A2-4C1F-86E2-E3C65EE57969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>日本工学院</t>
   </si>
@@ -284,9 +284,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>mo_add_node_to_clusterを表示</t>
+    <t>mo_add_node_to_clusterへ遷移</t>
     <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -611,7 +611,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +707,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,21 +727,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1269,21 +1266,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="19.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1291,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1303,7 +1300,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1312,7 +1309,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1321,11 +1318,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
@@ -1334,18 +1331,18 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15"/>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1354,7 +1351,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1392,7 +1389,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1409,7 +1406,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -1428,11 +1425,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1441,14 +1438,14 @@
       <c r="E12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1457,14 +1454,14 @@
       <c r="E13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -1473,14 +1470,14 @@
       <c r="E14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1489,14 +1486,14 @@
       <c r="E15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -1505,10 +1502,10 @@
       <c r="E16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1519,15 +1516,15 @@
         <v>12</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="28" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>10</v>
       </c>
@@ -1538,15 +1535,15 @@
         <v>12</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="28" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>11</v>
       </c>
@@ -1557,15 +1554,15 @@
         <v>12</v>
       </c>
       <c r="D19" s="22"/>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="28" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -1576,15 +1573,15 @@
         <v>12</v>
       </c>
       <c r="D20" s="22"/>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="28" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>13</v>
       </c>
@@ -1595,15 +1592,15 @@
         <v>12</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="28" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>14</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>15</v>
       </c>
@@ -1639,7 +1636,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <v>16</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>17</v>
       </c>
@@ -1677,7 +1674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
         <v>18</v>
       </c>
@@ -1692,9 +1689,11 @@
         <v>24</v>
       </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <v>19</v>
       </c>
@@ -1709,12 +1708,12 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>

--- a/docs/画面項目定義書/physical_node_dashboard.xlsx
+++ b/docs/画面項目定義書/physical_node_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFFFA0E-D1A2-4C1F-86E2-E3C65EE57969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A9862-03D7-40D5-8FC5-63809052D95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>日本工学院</t>
   </si>
@@ -287,6 +287,25 @@
     <t>mo_add_node_to_clusterへ遷移</t>
     <rPh sb="23" eb="25">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示、物理ノードエンティティの削除を実行</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1267,7 +1286,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1636,7 +1655,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <v>16</v>
       </c>
@@ -1652,7 +1671,7 @@
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
